--- a/experiments/timingJets.xlsx
+++ b/experiments/timingJets.xlsx
@@ -1264,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
